--- a/信息表格.xlsx
+++ b/信息表格.xlsx
@@ -9,7 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -115,24 +115,38 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -417,499 +431,482 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
-    <col width="26.08203125" customWidth="1" style="1" min="1" max="1"/>
-    <col width="26.08203125" customWidth="1" style="2" min="2" max="2"/>
-    <col width="20.4140625" customWidth="1" style="12" min="3" max="3"/>
-    <col width="24.58203125" customWidth="1" style="12" min="4" max="4"/>
+    <col width="26.08203125" customWidth="1" style="2" min="1" max="1"/>
+    <col width="26.08203125" customWidth="1" style="3" min="2" max="2"/>
+    <col width="20.4140625" customWidth="1" style="4" min="3" max="3"/>
+    <col width="24.58203125" customWidth="1" style="4" min="4" max="4"/>
+    <col width="8.6640625" customWidth="1" style="4" min="5" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>用户名</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>370704198704192412</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>PROSAS地址</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>http://web3.prosas.hg.cn:8080/prosas/</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>密码</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>975310oO!</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>监督记录路径</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>C:\0工作\卫生监督\001卫生监督的月常\卫生监督记录</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>单位名称</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>许可证号</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>卫生监督进度表路径</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>C:\0工作\卫生监督\001卫生监督的月常\00卫生监督进度V7.0.xlsx</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="16.5" customFormat="1" customHeight="1" s="13">
-      <c r="A4" s="8" t="inlineStr">
+    <row r="4" ht="16.5" customFormat="1" customHeight="1" s="6">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>配餐公司-生产</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>330017100000002</t>
         </is>
       </c>
-    </row>
-    <row r="5" ht="16.5" customFormat="1" customHeight="1" s="10">
-      <c r="A5" s="8" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>月总结路径</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>C:\0工作\定期工作\每月\【报卫检处】卫生监督月报</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="16.5" customFormat="1" customHeight="1" s="7">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>（1）号食堂-餐饮</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>330016001000002</t>
         </is>
       </c>
-      <c r="C5" s="13" t="n"/>
-      <c r="D5" s="13" t="n"/>
-    </row>
-    <row r="6" ht="16.5" customFormat="1" customHeight="1" s="10">
-      <c r="A6" s="8" t="inlineStr">
+      <c r="C5" s="6" t="n"/>
+      <c r="D5" s="6" t="n"/>
+    </row>
+    <row r="6" ht="16.5" customFormat="1" customHeight="1" s="7">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>小吃城-餐饮</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>330016001000001</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="16.5" customFormat="1" customHeight="1" s="10">
-      <c r="A7" s="8" t="inlineStr">
+    <row r="7" ht="16.5" customFormat="1" customHeight="1" s="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>蓝仕咖啡-餐饮</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>330017001000004</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="16.5" customFormat="1" customHeight="1" s="10">
-      <c r="A8" s="8" t="inlineStr">
+    <row r="8" ht="16.5" customFormat="1" customHeight="1" s="7">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>牛肉面馆-餐饮</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>330017001000003</t>
         </is>
       </c>
-      <c r="C8" s="9" t="n"/>
-      <c r="D8" s="10" t="n"/>
-    </row>
-    <row r="9" ht="16.5" customFormat="1" customHeight="1" s="10">
-      <c r="A9" s="8" t="inlineStr">
+      <c r="C8" s="8" t="n"/>
+    </row>
+    <row r="9" ht="16.5" customFormat="1" customHeight="1" s="7">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>空港酒店-餐饮</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>330017011010009</t>
         </is>
       </c>
-      <c r="C9" s="13" t="n"/>
-      <c r="D9" s="10" t="n"/>
-    </row>
-    <row r="10" ht="16.5" customFormat="1" customHeight="1" s="10">
-      <c r="A10" s="8" t="inlineStr">
+      <c r="C9" s="6" t="n"/>
+    </row>
+    <row r="10" ht="16.5" customFormat="1" customHeight="1" s="7">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>小西湖-餐饮</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>330017001000005</t>
         </is>
       </c>
-      <c r="C10" s="13" t="n"/>
-      <c r="D10" s="10" t="n"/>
-    </row>
-    <row r="11" ht="16.5" customFormat="1" customHeight="1" s="10">
-      <c r="A11" s="8" t="inlineStr">
+      <c r="C10" s="6" t="n"/>
+    </row>
+    <row r="11" ht="16.5" customFormat="1" customHeight="1" s="7">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>新林顿利-餐饮</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>330017001010010</t>
         </is>
       </c>
-      <c r="C11" s="13" t="n"/>
-      <c r="D11" s="10" t="n"/>
-    </row>
-    <row r="12" ht="16.5" customFormat="1" customHeight="1" s="10">
-      <c r="A12" s="8" t="inlineStr">
+      <c r="C11" s="6" t="n"/>
+    </row>
+    <row r="12" ht="16.5" customFormat="1" customHeight="1" s="7">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>万华楼-餐饮</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>330017001000011</t>
         </is>
       </c>
-      <c r="C12" s="13" t="n"/>
-      <c r="D12" s="10" t="n"/>
-    </row>
-    <row r="13" ht="16.5" customFormat="1" customHeight="1" s="10">
-      <c r="A13" s="8" t="inlineStr">
+      <c r="C12" s="6" t="n"/>
+    </row>
+    <row r="13" ht="16.5" customFormat="1" customHeight="1" s="7">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>汉堡王-餐饮</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>330018001000001</t>
         </is>
       </c>
-      <c r="C13" s="13" t="n"/>
-      <c r="D13" s="10" t="n"/>
-    </row>
-    <row r="14" ht="16.5" customFormat="1" customHeight="1" s="10">
-      <c r="A14" s="8" t="inlineStr">
+      <c r="C13" s="6" t="n"/>
+    </row>
+    <row r="14" ht="16.5" customFormat="1" customHeight="1" s="7">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>一木山楂-餐饮</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>330018010000001</t>
         </is>
       </c>
-      <c r="C14" s="13" t="n"/>
-      <c r="D14" s="10" t="n"/>
-    </row>
-    <row r="15" ht="16.5" customFormat="1" customHeight="1" s="10">
-      <c r="A15" s="8" t="inlineStr">
+      <c r="C14" s="6" t="n"/>
+    </row>
+    <row r="15" ht="16.5" customFormat="1" customHeight="1" s="7">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>空港酒店-销售</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>330017011010009</t>
         </is>
       </c>
-      <c r="C15" s="13" t="n"/>
-      <c r="D15" s="10" t="n"/>
-    </row>
-    <row r="16" ht="16.5" customFormat="1" customHeight="1" s="10">
-      <c r="A16" s="8" t="inlineStr">
+      <c r="C15" s="6" t="n"/>
+    </row>
+    <row r="16" ht="16.5" customFormat="1" customHeight="1" s="7">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>贵宾厅-销售</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>330017010010008</t>
         </is>
       </c>
-      <c r="C16" s="13" t="n"/>
-      <c r="D16" s="10" t="n"/>
-    </row>
-    <row r="17" ht="16.5" customFormat="1" customHeight="1" s="10">
-      <c r="A17" s="8" t="inlineStr">
+      <c r="C16" s="6" t="n"/>
+    </row>
+    <row r="17" ht="16.5" customFormat="1" customHeight="1" s="7">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>首信经营部（2楼安检外西）</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>330017010000001</t>
         </is>
       </c>
-      <c r="C17" s="13" t="n"/>
-      <c r="D17" s="10" t="n"/>
-    </row>
-    <row r="18" ht="16.5" customFormat="1" customHeight="1" s="10">
-      <c r="A18" s="8" t="inlineStr">
+      <c r="C17" s="6" t="n"/>
+    </row>
+    <row r="18" ht="16.5" customFormat="1" customHeight="1" s="7">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>雪域特产（2楼安检外东）</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>970019010000004</t>
         </is>
       </c>
-      <c r="C18" s="13" t="n"/>
-      <c r="D18" s="10" t="n"/>
-    </row>
-    <row r="19" ht="16.5" customFormat="1" customHeight="1" s="10">
-      <c r="A19" s="8" t="inlineStr">
+      <c r="C18" s="6" t="n"/>
+    </row>
+    <row r="19" ht="16.5" customFormat="1" customHeight="1" s="7">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>首信商贸（远机位）</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>970019010000005</t>
         </is>
       </c>
-      <c r="C19" s="13" t="n"/>
-      <c r="D19" s="10" t="n"/>
-    </row>
-    <row r="20" ht="16.5" customFormat="1" customHeight="1" s="10">
-      <c r="A20" s="8" t="inlineStr">
+      <c r="C19" s="6" t="n"/>
+    </row>
+    <row r="20" ht="16.5" customFormat="1" customHeight="1" s="7">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>葆晟经营部（1楼）</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>970019010000006</t>
         </is>
       </c>
-      <c r="C20" s="13" t="n"/>
-      <c r="D20" s="10" t="n"/>
-    </row>
-    <row r="21" ht="16.5" customFormat="1" customHeight="1" s="10">
-      <c r="A21" s="8" t="inlineStr">
+      <c r="C20" s="6" t="n"/>
+    </row>
+    <row r="21" ht="16.5" customFormat="1" customHeight="1" s="7">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>首信经营部（蓝仕咖啡南）</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>970019010000007</t>
         </is>
       </c>
-      <c r="C21" s="13" t="n"/>
-      <c r="D21" s="14" t="n"/>
-    </row>
-    <row r="22" ht="16.5" customFormat="1" customHeight="1" s="10">
-      <c r="A22" s="8" t="inlineStr">
+      <c r="C21" s="6" t="n"/>
+      <c r="D21" s="9" t="n"/>
+    </row>
+    <row r="22" ht="16.5" customFormat="1" customHeight="1" s="7">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>首信经营部（蓝仕咖啡西）</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>970019010000008</t>
         </is>
       </c>
-      <c r="C22" s="13" t="n"/>
-      <c r="D22" s="10" t="n"/>
-    </row>
-    <row r="23" ht="16.5" customFormat="1" customHeight="1" s="10">
-      <c r="A23" s="8" t="inlineStr">
+      <c r="C22" s="6" t="n"/>
+    </row>
+    <row r="23" ht="16.5" customFormat="1" customHeight="1" s="7">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>诺蓝杞-销售</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>330017010000014</t>
         </is>
       </c>
-      <c r="C23" s="13" t="n"/>
-      <c r="D23" s="10" t="n"/>
-    </row>
-    <row r="24" ht="16.5" customFormat="1" customHeight="1" s="11">
-      <c r="A24" s="8" t="inlineStr">
+      <c r="C23" s="6" t="n"/>
+    </row>
+    <row r="24" ht="16.5" customFormat="1" customHeight="1" s="10">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>阿米雪-销售</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>013</t>
         </is>
       </c>
-      <c r="C24" s="13" t="n"/>
-      <c r="D24" s="11" t="n"/>
-    </row>
-    <row r="25" ht="16.5" customFormat="1" customHeight="1" s="11">
-      <c r="A25" s="8" t="inlineStr">
+      <c r="C24" s="6" t="n"/>
+    </row>
+    <row r="25" ht="16.5" customFormat="1" customHeight="1" s="10">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>青青稞酒-销售</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B25" s="5" t="inlineStr">
         <is>
           <t>330016010000010</t>
         </is>
       </c>
-      <c r="C25" s="13" t="n"/>
-      <c r="D25" s="11" t="n"/>
-    </row>
-    <row r="26" ht="16.5" customFormat="1" customHeight="1" s="11">
-      <c r="A26" s="8" t="inlineStr">
+      <c r="C25" s="6" t="n"/>
+    </row>
+    <row r="26" ht="16.5" customFormat="1" customHeight="1" s="10">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>益鑫手抓-销售</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>330016010000007</t>
         </is>
       </c>
-      <c r="C26" s="13" t="n"/>
-      <c r="D26" s="11" t="n"/>
-    </row>
-    <row r="27" ht="16.5" customFormat="1" customHeight="1" s="10">
-      <c r="A27" s="8" t="inlineStr">
+      <c r="C26" s="6" t="n"/>
+    </row>
+    <row r="27" ht="16.5" customFormat="1" customHeight="1" s="7">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>货场小卖部-销售</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr">
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>330016010000005</t>
         </is>
       </c>
-      <c r="C27" s="13" t="n"/>
-      <c r="D27" s="10" t="n"/>
-    </row>
-    <row r="28" ht="16.5" customFormat="1" customHeight="1" s="10">
-      <c r="A28" s="8" t="inlineStr">
+      <c r="C27" s="6" t="n"/>
+    </row>
+    <row r="28" ht="16.5" customFormat="1" customHeight="1" s="7">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>一木山楂-销售</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>330018010000001</t>
         </is>
       </c>
-      <c r="C28" s="10" t="n"/>
-      <c r="D28" s="10" t="n"/>
-    </row>
-    <row r="29" ht="16.5" customFormat="1" customHeight="1" s="10">
-      <c r="A29" s="8" t="inlineStr">
+    </row>
+    <row r="29" ht="16.5" customFormat="1" customHeight="1" s="7">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>天佑牧人（2楼）-销售</t>
         </is>
       </c>
-      <c r="B29" s="4" t="inlineStr">
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>970019010000001</t>
         </is>
       </c>
-      <c r="C29" s="10" t="n"/>
-      <c r="D29" s="10" t="n"/>
-    </row>
-    <row r="30" ht="16.5" customFormat="1" customHeight="1" s="10">
-      <c r="A30" s="8" t="inlineStr">
+    </row>
+    <row r="30" ht="16.5" customFormat="1" customHeight="1" s="7">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>天佑牧人（1楼）-销售</t>
         </is>
       </c>
-      <c r="B30" s="4" t="inlineStr">
+      <c r="B30" s="5" t="inlineStr">
         <is>
           <t>970019010000003</t>
         </is>
       </c>
-      <c r="C30" s="10" t="n"/>
-      <c r="D30" s="10" t="n"/>
-    </row>
-    <row r="31" ht="16.5" customFormat="1" customHeight="1" s="10">
-      <c r="A31" s="8" t="inlineStr">
+    </row>
+    <row r="31" ht="16.5" customFormat="1" customHeight="1" s="7">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>千紫缘-销售</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="B31" s="5" t="inlineStr">
         <is>
           <t>970019010000002</t>
         </is>
       </c>
-      <c r="C31" s="13" t="n"/>
-      <c r="D31" s="10" t="n"/>
-    </row>
-    <row r="32" ht="16.5" customFormat="1" customHeight="1" s="10">
-      <c r="A32" s="8" t="inlineStr">
+      <c r="C31" s="6" t="n"/>
+    </row>
+    <row r="32" ht="16.5" customFormat="1" customHeight="1" s="7">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>水站</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr">
+      <c r="B32" s="5" t="inlineStr">
         <is>
           <t>008</t>
         </is>
       </c>
-      <c r="C32" s="13" t="n"/>
-      <c r="D32" s="10" t="n"/>
-    </row>
-    <row r="33" ht="16.5" customFormat="1" customHeight="1" s="10">
-      <c r="A33" s="8" t="n"/>
-      <c r="B33" s="4" t="n"/>
-      <c r="C33" s="13" t="n"/>
-      <c r="D33" s="10" t="n"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1" s="12">
-      <c r="A34" s="8" t="n"/>
-      <c r="C34" s="13" t="n"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1" s="12">
-      <c r="A35" s="8" t="n"/>
-      <c r="C35" s="13" t="n"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1" s="12">
-      <c r="A36" s="8" t="n"/>
-      <c r="C36" s="13" t="n"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1" s="12">
-      <c r="A37" s="8" t="n"/>
-      <c r="C37" s="13" t="n"/>
+      <c r="C32" s="6" t="n"/>
+    </row>
+    <row r="33" ht="16.5" customFormat="1" customHeight="1" s="7">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="5" t="n"/>
+      <c r="C33" s="6" t="n"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c r="A34" s="1" t="n"/>
+      <c r="C34" s="6" t="n"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c r="A35" s="1" t="n"/>
+      <c r="C35" s="6" t="n"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c r="A36" s="1" t="n"/>
+      <c r="C36" s="6" t="n"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c r="A37" s="1" t="n"/>
+      <c r="C37" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/信息表格.xlsx
+++ b/信息表格.xlsx
@@ -426,7 +426,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
@@ -435,8 +435,8 @@
     <col width="26.08203125" customWidth="1" style="3" min="2" max="2"/>
     <col width="20.4140625" customWidth="1" style="4" min="3" max="3"/>
     <col width="24.58203125" customWidth="1" style="4" min="4" max="4"/>
-    <col width="8.6640625" customWidth="1" style="4" min="5" max="5"/>
-    <col width="8.6640625" customWidth="1" style="4" min="6" max="16384"/>
+    <col width="8.6640625" customWidth="1" style="4" min="5" max="6"/>
+    <col width="8.6640625" customWidth="1" style="4" min="7" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -501,7 +501,7 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>C:\0工作\卫生监督\001卫生监督的月常\00卫生监督进度V7.0.xlsx</t>
+          <t>C:\CODE\WSJD1024\00卫生监督进度V7.0.xlsx</t>
         </is>
       </c>
     </row>
@@ -523,7 +523,7 @@
       </c>
       <c r="D4" s="6" t="inlineStr">
         <is>
-          <t>C:\0工作\定期工作\每月\【报卫检处】卫生监督月报</t>
+          <t>C:\CODE\WSJD1024</t>
         </is>
       </c>
     </row>

--- a/信息表格.xlsx
+++ b/信息表格.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CODE\WSJD1024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\WSJD1024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D800B24-A632-4F8D-85A1-11CC13EF8659}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="970" yWindow="-110" windowWidth="18340" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="975" yWindow="-105" windowWidth="18345" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,11 +19,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
   <si>
     <t>用户名</t>
   </si>
   <si>
+    <t>370704198704192412</t>
+  </si>
+  <si>
     <t>PROSAS地址</t>
   </si>
   <si>
@@ -34,10 +36,13 @@
     <t>密码</t>
   </si>
   <si>
+    <t>975310oO!</t>
+  </si>
+  <si>
     <t>监督记录路径</t>
   </si>
   <si>
-    <t>C:\0工作\卫生监督\001卫生监督的月常\卫生监督记录</t>
+    <t>D:\卫生监督\卫生监督的月常\卫生监督记录</t>
   </si>
   <si>
     <t>单位名称</t>
@@ -49,7 +54,7 @@
     <t>卫生监督进度表路径</t>
   </si>
   <si>
-    <t>C:\0工作\卫生监督\001卫生监督的月常\00卫生监督进度V7.0.xlsx</t>
+    <t>D:\卫生监督\卫生监督的月常\00卫生监督进度V7.0.xlsx</t>
   </si>
   <si>
     <t>配餐公司-生产</t>
@@ -61,7 +66,7 @@
     <t>月总结路径</t>
   </si>
   <si>
-    <t>C:\0工作\定期工作\每月\【报卫检处】卫生监督月报</t>
+    <t>D:\卫生监督\0月报</t>
   </si>
   <si>
     <t>（1）号食堂-餐饮</t>
@@ -226,19 +231,19 @@
     <t>008</t>
   </si>
   <si>
-    <t>输入密码</t>
+    <t>清真食堂-餐饮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>输入用户名</t>
+    <t>330016001000003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,7 +377,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -649,98 +654,100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.08203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="26.08203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.4140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.58203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="8.6640625" style="4"/>
+    <col min="1" max="1" width="26.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="8.625" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="8.625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -748,25 +755,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -775,7 +781,7 @@
       </c>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -784,7 +790,7 @@
       </c>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -793,7 +799,7 @@
       </c>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -802,7 +808,7 @@
       </c>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -811,25 +817,25 @@
       </c>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -838,7 +844,7 @@
       </c>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -847,7 +853,7 @@
       </c>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -856,7 +862,7 @@
       </c>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
@@ -865,7 +871,7 @@
       </c>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -873,9 +879,8 @@
         <v>46</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>47</v>
       </c>
@@ -883,8 +888,9 @@
         <v>48</v>
       </c>
       <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -893,7 +899,7 @@
       </c>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:4" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
@@ -902,7 +908,7 @@
       </c>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="1:4" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" s="10" customFormat="1" ht="16.5" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -911,7 +917,7 @@
       </c>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:4" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" s="10" customFormat="1" ht="16.5" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
@@ -920,7 +926,7 @@
       </c>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" s="10" customFormat="1" ht="16.5" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>57</v>
       </c>
@@ -929,23 +935,24 @@
       </c>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
@@ -953,16 +960,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="6"/>
-    </row>
-    <row r="32" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:4" s="7" customFormat="1" ht="16.5" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>66</v>
       </c>
@@ -971,30 +977,39 @@
       </c>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:3" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5"/>
+    <row r="33" spans="1:3" s="7" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" s="7" customFormat="1" ht="16.5" customHeight="1">
       <c r="A34" s="1"/>
+      <c r="B34" s="5"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="16.5" customHeight="1">
       <c r="A35" s="1"/>
       <c r="C35" s="6"/>
     </row>
-    <row r="36" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="16.5" customHeight="1">
       <c r="A36" s="1"/>
       <c r="C36" s="6"/>
     </row>
-    <row r="37" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="16.5" customHeight="1">
       <c r="A37" s="1"/>
       <c r="C37" s="6"/>
+    </row>
+    <row r="38" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A38" s="1"/>
+      <c r="C38" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/信息表格.xlsx
+++ b/信息表格.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="970" yWindow="-110" windowWidth="18340" windowHeight="11020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>

--- a/信息表格.xlsx
+++ b/信息表格.xlsx
@@ -426,7 +426,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
@@ -435,8 +435,8 @@
     <col width="26.08203125" customWidth="1" style="3" min="2" max="2"/>
     <col width="20.4140625" customWidth="1" style="4" min="3" max="3"/>
     <col width="24.58203125" customWidth="1" style="4" min="4" max="4"/>
-    <col width="8.6640625" customWidth="1" style="4" min="5" max="6"/>
-    <col width="8.6640625" customWidth="1" style="4" min="7" max="16384"/>
+    <col width="8.6640625" customWidth="1" style="4" min="5" max="7"/>
+    <col width="8.6640625" customWidth="1" style="4" min="8" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -479,7 +479,7 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>C:\0工作\卫生监督\001卫生监督的月常\卫生监督记录</t>
+          <t>C:\CODE\WSJD1024\卫生监督记录</t>
         </is>
       </c>
     </row>
